--- a/biology/Botanique/Terminalia_dichotoma/Terminalia_dichotoma.xlsx
+++ b/biology/Botanique/Terminalia_dichotoma/Terminalia_dichotoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Terminalia dichotoma est une espèce d'arbre néotropical appartenant à la famille des Combretaceae.
-En Guyane, on le connaît sous les noms de Graine hocco, Angouchi (Créole), Alala munuwi (Wayãpi), Katuma (terme générique Palikur), Cinzeiro (Portugais)[3].
-On le nomme Karalawai jakoenepele (Karib)[4], Alaso-abo, Bosamandel, Boskalebas, foekadi djamaro, Fukadi, Gindaya-udu, Kalebashout, Kararawa akunepere, Sansan-udu, Zwamp bosamandel au Suriname[5], Coffee mortar, Fukadi, Maharu, Naharu swamp fukadi au Guyana, et Cafecillo, Najaru au Venezuela[6].
+En Guyane, on le connaît sous les noms de Graine hocco, Angouchi (Créole), Alala munuwi (Wayãpi), Katuma (terme générique Palikur), Cinzeiro (Portugais).
+On le nomme Karalawai jakoenepele (Karib), Alaso-abo, Bosamandel, Boskalebas, foekadi djamaro, Fukadi, Gindaya-udu, Kalebashout, Kararawa akunepere, Sansan-udu, Zwamp bosamandel au Suriname, Coffee mortar, Fukadi, Maharu, Naharu swamp fukadi au Guyana, et Cafecillo, Najaru au Venezuela.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Terminalia dichotoma est un arbre haut de 3 à 40(60) m, (? caduc ou persistant), parfois avec de gros contreforts en plaques. 
 Le bois est de couleur brun clair, lourd (densité : 0,70-0,90, jusqu'à 1.00), avec 4 à 7 vaisseaux par mm2, de taille moyenne (120 à 165 µm), et des ponctuations intervasculaires de l'ordre de 9-10 µm.
-Le parenchyme est plutôt rare, associé aux pores en manchon relativement abondants et en lignes terminales[7].
+Le parenchyme est plutôt rare, associé aux pores en manchon relativement abondants et en lignes terminales.
 Les feuilles simples, alternes, souvent regroupées en pseudo-verticilles, mesurent 9-22 x 4-10 cm, et sont cartacées à subcoriaces, de forme obovales ou obovale-oblongue à oblancéolée, à apex acuminé, à base étroitement cunéiforme.
 Elles sont pubescentes quand elles sont jeunes, puis quasiment glabres et brillantes à maturité sur le dessus, densément pubescentes quand elles sont jeunes puis devenant subglabres à peu pubescentes au-dessous.
 Les domaties sont absentes.
@@ -542,7 +556,7 @@
 L'infructescence comporte généralement peu de fruits, disposés près de l'apex du rachis, ou parfois sur toute la longueur.
 Les fruits sont glabres, brillants, 2,5-4,5 x 2-4,5 cm (généralement légèrement plus longs que larges), fortement aplatis, de forme suborbiculaires à très largement elliptiques à rhombiques ou obtriangulaires en vue latérale, à l'apex arrondi, émarginé ou apiculé, et à base arrondie à cunéiforme (pas pseudostipitée).
 Il porte 2 ailes, raides, égales, larges de 4–6(–8-15) mm, nettement épaissie, de texture spongieuse, adjacentes au corps et pour la plupart des marges (la partie fine de l'aile large de seulement 4-6 mm), arrondies à fortement inclinées latéralement (l'angle le plus proche de l'apex du fruit).
-Le corps du fruit est large de 0,6 −1,2 cm, mais apparait beaucoup plus large en raison de la base épaissie des ailes, portant souvent à 1-2 stries sur une face et de légères rainurées sur l'autre[5],[4],[6].
+Le corps du fruit est large de 0,6 −1,2 cm, mais apparait beaucoup plus large en raison de la base épaissie des ailes, portant souvent à 1-2 stries sur une face et de légères rainurées sur l'autre.
 </t>
         </is>
       </c>
@@ -571,9 +585,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Terminalia dichotoma est présent de la Colombie au Brésil (Bahia), en passant par Trinidad[8],[9], le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, et le Pérou[6]. Il est principalement sublittoral dans l'Est, mais dispersé le long du bassin Amazonien jusqu'à l'Équateur, et au Pérou, beaucoup plus clairsemé dans l'Ouest, particulièrement dans la région des Guyanes[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Terminalia dichotoma est présent de la Colombie au Brésil (Bahia), en passant par Trinidad le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, et le Pérou. Il est principalement sublittoral dans l'Est, mais dispersé le long du bassin Amazonien jusqu'à l'Équateur, et au Pérou, beaucoup plus clairsemé dans l'Ouest, particulièrement dans la région des Guyanes.
 </t>
         </is>
       </c>
@@ -602,12 +618,14 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les Guyanes, Terminalia dichotoma est principalement un grand arbre commun des forêts anciennes ripicoles ou souvent inondées, sur sols alluviaux ou sableux, jusqu'à 250 m d'altitude[5], parfois épargné par l'homme en Guyane[3].
-Il est dans les forêts marécageuses et riveraines de la zone sublittorale autour de 0–200 m d'altitude au Venezuela, et le long de l'Amazone au Brésil et au Pérou[6].
-Il fleurit dans les Guyanes de juin à octobre et fructifie d'octobre à décembre[5].
-Le hocco (Crax alector) et le ara rouge (Ara macao) consomment les fruits de Terminalia dichotoma[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les Guyanes, Terminalia dichotoma est principalement un grand arbre commun des forêts anciennes ripicoles ou souvent inondées, sur sols alluviaux ou sableux, jusqu'à 250 m d'altitude, parfois épargné par l'homme en Guyane.
+Il est dans les forêts marécageuses et riveraines de la zone sublittorale autour de 0–200 m d'altitude au Venezuela, et le long de l'Amazone au Brésil et au Pérou.
+Il fleurit dans les Guyanes de juin à octobre et fructifie d'octobre à décembre.
+Le hocco (Crax alector) et le ara rouge (Ara macao) consomment les fruits de Terminalia dichotoma.
 </t>
         </is>
       </c>
@@ -636,10 +654,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son bois dur est utilisé localement pour la construction de maisons[5],[10].
-La décoction d'écorce du tronc de Terminalia dichotoma sert à laver les enfants chez les Wayãpi, si leur père a enfreint l'interdit de chasse sur le ara rouge, car ils risqueraient alors de s'essouffler[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son bois dur est utilisé localement pour la construction de maisons,.
+La décoction d'écorce du tronc de Terminalia dichotoma sert à laver les enfants chez les Wayãpi, si leur père a enfreint l'interdit de chasse sur le ara rouge, car ils risqueraient alors de s'essouffler.
 </t>
         </is>
       </c>
@@ -668,9 +688,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[11] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « TANIBOUCA Guianenſis. (Tabula 178.)
 Arbor trunco viginti quinque-pedali, ad ſummitatem ramoſo ; ramis tortuoſis, hìnc &amp; indè ſparſis, in apice folioſis. foliA alterna, ovata, acuta, glabra, integerrima, petiolata, decidua. Flores alterni, ſeſſiles, in ſpicam longam, terminalem &amp; axillarem, diſpoſiti ; gracum odorem exhalantes. Singulus flos, ad baſim ſquamulâ munitur.
 Florebat Maio.
